--- a/biology/Médecine/Qui_va_m'aimer_désormais__/Qui_va_m'aimer_désormais__.xlsx
+++ b/biology/Médecine/Qui_va_m'aimer_désormais__/Qui_va_m'aimer_désormais__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qui_va_m%27aimer_d%C3%A9sormais_%3F</t>
+          <t>Qui_va_m'aimer_désormais_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Qui va m'aimer désormais ? (en anglais Who's Gonna Love Me Now? ; en allemand Wer wird mich noch jetzt lieben?) est un film documentaire, de coproduction britannique et israélienne, sorti en 2016[1] et réalisé par les frères Barak et Tomer Heymann.
+Qui va m'aimer désormais ? (en anglais Who's Gonna Love Me Now? ; en allemand Wer wird mich noch jetzt lieben?) est un film documentaire, de coproduction britannique et israélienne, sorti en 2016 et réalisé par les frères Barak et Tomer Heymann.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qui_va_m%27aimer_d%C3%A9sormais_%3F</t>
+          <t>Qui_va_m'aimer_désormais_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Résumé
-La trame se joue autour de Saar Maoz, expatrié israélien vivant à Londres, gay et séropositif[1]. Mis à la porte de chez lui en Israël après avoir effectué son coming-out auprès de sa famille, il retourne au pays une vingtaine d'années plus tard. La suite met en lumière les difficultés auxquelles le protagoniste se confronte vis-à-vis de sa proche parenté, notamment au regard de la nouvelle vie qu’il s’est depuis lors construit en adhérant au London Gay Men's Chorus (en).
-Précession
-Tomer Heymann rencontre Saar Maoz une première fois au cours d'une soirée en 1994 à Tel-Aviv. Les deux hommes perdent contact jusqu'à ce que réalisateur le reconnaisse dans la rue une dizaine d’années plus tard[2].
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trame se joue autour de Saar Maoz, expatrié israélien vivant à Londres, gay et séropositif. Mis à la porte de chez lui en Israël après avoir effectué son coming-out auprès de sa famille, il retourne au pays une vingtaine d'années plus tard. La suite met en lumière les difficultés auxquelles le protagoniste se confronte vis-à-vis de sa proche parenté, notamment au regard de la nouvelle vie qu’il s’est depuis lors construit en adhérant au London Gay Men's Chorus (en).
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qui_va_m%27aimer_d%C3%A9sormais_%3F</t>
+          <t>Qui_va_m'aimer_désormais_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +558,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Précession</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomer Heymann rencontre Saar Maoz une première fois au cours d'une soirée en 1994 à Tel-Aviv. Les deux hommes perdent contact jusqu'à ce que réalisateur le reconnaisse dans la rue une dizaine d’années plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Qui_va_m'aimer_désormais_?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Qui_va_m%27aimer_d%C3%A9sormais_%3F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Diffusions
-Qui va m'aimer désormais ? est présenté en avant-première en 2013 au Sheffield International Documentary Festival (en) (SIDF).
-La première se déroule lors de la Berlinale 2016[1] sous la houlette et direction du jury de Meryl Streep. La projection y remporte le prix  du public Panorama qui en récompense le « meilleur documentaire[3] ».</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diffusions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Qui va m'aimer désormais ? est présenté en avant-première en 2013 au Sheffield International Documentary Festival (en) (SIDF).
+La première se déroule lors de la Berlinale 2016 sous la houlette et direction du jury de Meryl Streep. La projection y remporte le prix  du public Panorama qui en récompense le « meilleur documentaire ».</t>
         </is>
       </c>
     </row>
